--- a/biology/Médecine/Laser_dentaire_YAP/Laser_dentaire_YAP.xlsx
+++ b/biology/Médecine/Laser_dentaire_YAP/Laser_dentaire_YAP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Laser dentaire YAP est un laser adapté à la dentisterie conservatrice. Son cristal de type Nd:YAP est un pérovskite d'yttrium et d'aluminium YAlO3 dopé au néodyme.
 </t>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1970 le cristal Nd:YAG a été étudié. Les longueurs d'onde d'émission sont principalement de 1,06 µm et de 1,32 µm. L'utilisation du 1,06 µm permet une bonne absorption par l'hémoglobine mais une mauvaise absorption par l'eau. 
 Plus tard dans les années 1980, l'utilisation de la longueur d'onde 1,32 µm fut développée et démontra une absorption de l'eau dix fois supérieure au YAG 1,06 µm. 
-Les rendements trop faibles d'un YAG 1,32 µm ont conduit certains laboratoires à travailler sur un cristal proche du Nd:YAG : le Nd:YAP[1].
+Les rendements trop faibles d'un YAG 1,32 µm ont conduit certains laboratoires à travailler sur un cristal proche du Nd:YAG : le Nd:YAP.
 Les longueurs d'onde du Nd:YAP sont principalement le 1,08 µm et le 1 341 nm. La longueur d'onde de 1 341 nm fournit des rendements bien supérieurs au YAG 1,32 µm, une bonne absorption dans l'hémoglobine et une absorption dans l'eau de vingt fois supérieure au YAG 1,06 µm. 
-En 1994 le premier laser dentaire YAP 1 341 nm est apparu (brevets de la société Brainstorming[2].
+En 1994 le premier laser dentaire YAP 1 341 nm est apparu (brevets de la société Brainstorming.
 </t>
         </is>
       </c>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cristal Nd:YAP est pompé par diode ou plus souvent par lampe flash. Étant donné qu'il y a plusieurs longueurs d'onde, le miroir semi-réfléchissant possède un traitement de filtrage permettant de ne laisser passer que la longueur d'onde de 1 341 nm.
 Un laser Nd:YAP possédant une longueur d'onde de 1,34 µm a pour effet d'être très bien absorbé par l'eau et l'hémoglobine. En conséquence, plus les tissus contiennent de l'eau plus le laser est efficace. Le plus souvent le YAP est fibré, en effet il permet d'atteindre les foyers infectieux de la bouche et les traiter localement en conservant le plus de tissus possible.
@@ -605,7 +623,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bien absorbé dans l'hémoglobine : Le laser Nd:YAP permet dans toutes les situations de traitement, de contrôler les saignements grâce à son action hémostatique.
 Bien absorbé dans l'eau : Le laser Nd:YAP permet la photo-vaporisation des tissus mous de façon précise et sans saignement.
@@ -640,7 +660,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Endodontie
 Descellement de tenon
